--- a/KChangeExcel.xlsx
+++ b/KChangeExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Каширских Дмитрий\Desktop\Дмитрий\ГОСТ\Прочее\Макросы\Changing designations and names from Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Каширских Дмитрий\Desktop\Дмитрий\ГОСТ\Прочее\Макросы\KChangeExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C889261-AF7F-43C5-B083-1CA50DE06286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B44F94-A6A1-4E84-817D-891BFAC9D27F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51190" yWindow="0" windowWidth="25610" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>Каширских Дмитрий</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{254297D4-7FC7-43D9-982D-F0B03068DBCF}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{254297D4-7FC7-43D9-982D-F0B03068DBCF}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Обозначение</t>
   </si>
@@ -91,18 +91,6 @@
     <t>Прямоугольный параллелепипед</t>
   </si>
   <si>
-    <t>Кол-во</t>
-  </si>
-  <si>
-    <t>Д16 ГОСТ 4784-2019 = 2,77</t>
-  </si>
-  <si>
-    <t>Сталь 40Х ГОСТ 4543-2016 = 7,856</t>
-  </si>
-  <si>
-    <t>Все</t>
-  </si>
-  <si>
     <t>Стандартные изделия</t>
   </si>
   <si>
@@ -124,9 +112,6 @@
     <t>КЛМН.123456.004</t>
   </si>
   <si>
-    <t>Сталь 40Х ГОСТ 4543-2016 = 7,857</t>
-  </si>
-  <si>
     <t>АБВГ.123456.004</t>
   </si>
   <si>
@@ -145,7 +130,25 @@
     <t>Наименование старое</t>
   </si>
   <si>
-    <t>Материал = Плотность</t>
+    <t>Корыто</t>
+  </si>
+  <si>
+    <t>Плотность</t>
+  </si>
+  <si>
+    <t>Материал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сталь 40Х ГОСТ 4543-2016 </t>
+  </si>
+  <si>
+    <t>Д16 ГОСТ 4784-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Количество</t>
   </si>
 </sst>
 </file>
@@ -304,7 +307,47 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{6684A645-1D79-4406-8D5E-161581B43CA7}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -644,19 +687,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31876364-9740-4186-96B5-52D7E2CBB347}" name="Таблица1" displayName="Таблица1" ref="A1:J53" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Обычный 2">
-  <autoFilter ref="A1:J53" xr:uid="{A43478FD-0FBD-4CC5-A216-991FD30CEC71}"/>
-  <tableColumns count="10">
-    <tableColumn id="7" xr3:uid="{6D6D276A-1C72-4EE1-A701-400BDF89D17B}" name="№" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{6F9B2A5C-FB7B-4033-AC6B-D2C2539E6B16}" name="Обозначение старое" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{EC78E633-8563-42D5-8695-2F554D2FBEA9}" name="Наименование старое" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{09BAA521-82B1-47F5-BF02-48A5B2CAD9AF}" name="Обозначение" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{1C5D4D35-42E2-4E48-B984-7125CE7EE059}" name="Наименование" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{399D197B-D00B-4C0C-A383-FE097C4526DF}" name="Кол-во" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{DB028B6D-2012-4A7F-9073-4FC6D194DF1C}" name="Материал = Плотность" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{83AD91A7-A0C0-40E0-8519-9AE631E70B76}" name="Раздел спецификации" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{B046F9E4-F9D5-4718-A3EC-3F78FB527EC2}" name="Организация" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{F081264F-9FA3-49C0-9E35-FBFB1C069208}" name="Изменено" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31876364-9740-4186-96B5-52D7E2CBB347}" name="Таблица1" displayName="Таблица1" ref="A1:K53" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15" headerRowCellStyle="Обычный 2">
+  <autoFilter ref="A1:K53" xr:uid="{A43478FD-0FBD-4CC5-A216-991FD30CEC71}"/>
+  <tableColumns count="11">
+    <tableColumn id="7" xr3:uid="{6D6D276A-1C72-4EE1-A701-400BDF89D17B}" name="№" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{6F9B2A5C-FB7B-4033-AC6B-D2C2539E6B16}" name="Обозначение старое" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{EC78E633-8563-42D5-8695-2F554D2FBEA9}" name="Наименование старое" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{09BAA521-82B1-47F5-BF02-48A5B2CAD9AF}" name="Обозначение" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{1C5D4D35-42E2-4E48-B984-7125CE7EE059}" name="Наименование" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{399D197B-D00B-4C0C-A383-FE097C4526DF}" name="Количество" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{779B369C-A116-4755-B7F2-868E7AE5D9DB}" name="Материал" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{DB028B6D-2012-4A7F-9073-4FC6D194DF1C}" name="Плотность" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{83AD91A7-A0C0-40E0-8519-9AE631E70B76}" name="Раздел спецификации" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{B046F9E4-F9D5-4718-A3EC-3F78FB527EC2}" name="Организация" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F081264F-9FA3-49C0-9E35-FBFB1C069208}" name="Изменено" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -925,9 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -936,22 +982,23 @@
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.90625" customWidth="1"/>
     <col min="5" max="5" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -960,22 +1007,25 @@
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -991,23 +1041,26 @@
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7.8559999999999999</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1027,19 +1080,22 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.77</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1055,69 +1111,96 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7.8559999999999999</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.8559999999999999</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="K5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.8559999999999999</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1129,9 +1212,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1143,9 +1227,10 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1157,9 +1242,10 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1171,9 +1257,10 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1185,9 +1272,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1199,9 +1287,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1213,9 +1302,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1227,9 +1317,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1241,9 +1332,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1255,9 +1347,10 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1269,9 +1362,10 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1283,9 +1377,10 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1297,9 +1392,10 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1311,9 +1407,10 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1325,9 +1422,10 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1339,9 +1437,10 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1353,9 +1452,10 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1367,9 +1467,10 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1381,9 +1482,10 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1395,9 +1497,10 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J26" s="3"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1408,9 +1511,10 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I27" s="3"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1422,9 +1526,10 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J28" s="3"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1436,9 +1541,10 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J29" s="3"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1450,9 +1556,10 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J30" s="10"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -1464,9 +1571,10 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J31" s="10"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1478,9 +1586,10 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J32" s="10"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -1492,9 +1601,10 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J33" s="10"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -1506,9 +1616,10 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J34" s="10"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -1520,9 +1631,10 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J35" s="10"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -1534,9 +1646,10 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J36" s="10"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -1548,9 +1661,10 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J37" s="10"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -1562,9 +1676,10 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J38" s="10"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -1576,9 +1691,10 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J39" s="10"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -1590,9 +1706,10 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J40" s="10"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -1604,9 +1721,10 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J41" s="10"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -1618,9 +1736,10 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J42" s="10"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -1632,9 +1751,10 @@
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J43" s="10"/>
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -1646,9 +1766,10 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J44" s="10"/>
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -1660,9 +1781,10 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J45" s="10"/>
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -1674,9 +1796,10 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J46" s="10"/>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -1688,9 +1811,10 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
-      <c r="J47" s="11"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J47" s="10"/>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -1702,9 +1826,10 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
-      <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J48" s="10"/>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -1716,9 +1841,10 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
-      <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J49" s="10"/>
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -1730,9 +1856,10 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
-      <c r="J50" s="11"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J50" s="10"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -1744,9 +1871,10 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
-      <c r="J51" s="11"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J51" s="10"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -1758,9 +1886,10 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J52" s="10"/>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -1772,21 +1901,34 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
-      <c r="J53" s="11"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Нет">
-      <formula>NOT(ISERROR(SEARCH("Нет",J2)))</formula>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Нет">
+      <formula>NOT(ISERROR(SEARCH("Нет",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Да">
-      <formula>NOT(ISERROR(SEARCH("Да",J2)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Да">
+      <formula>NOT(ISERROR(SEARCH("Да",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5" xr:uid="{6BFAD3FB-E2EE-4364-9FC9-D4EC565C3DF1}">
+  <conditionalFormatting sqref="K6">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Нет">
+      <formula>NOT(ISERROR(SEARCH("Нет",K6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Да">
+      <formula>NOT(ISERROR(SEARCH("Да",K6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{6BFAD3FB-E2EE-4364-9FC9-D4EC565C3DF1}">
       <formula1>"Детали,Сборочные еденицы,Стандартные изделия,Прочие изделия,Материалы,Комплекты"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{A13CDCE0-4040-4176-B80B-C42B40602216}">
+      <formula1>1</formula1>
+      <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KChangeExcel.xlsx
+++ b/KChangeExcel.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Каширских Дмитрий\Desktop\Дмитрий\ГОСТ\Прочее\Макросы\KChangeExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B44F94-A6A1-4E84-817D-891BFAC9D27F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152F896D-CBD6-4382-84F4-74EDBE5FE1A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51190" yWindow="0" windowWidth="25610" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Обозначение</t>
   </si>
@@ -118,9 +124,6 @@
     <t>Сборочные еденицы</t>
   </si>
   <si>
-    <t>Детали</t>
-  </si>
-  <si>
     <t>Раздел спецификации</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>Количество</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -307,7 +313,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{6684A645-1D79-4406-8D5E-161581B43CA7}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <font>
         <b val="0"/>
@@ -367,6 +373,26 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -687,22 +713,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31876364-9740-4186-96B5-52D7E2CBB347}" name="Таблица1" displayName="Таблица1" ref="A1:K53" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15" headerRowCellStyle="Обычный 2">
-  <autoFilter ref="A1:K53" xr:uid="{A43478FD-0FBD-4CC5-A216-991FD30CEC71}"/>
-  <tableColumns count="11">
-    <tableColumn id="7" xr3:uid="{6D6D276A-1C72-4EE1-A701-400BDF89D17B}" name="№" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{6F9B2A5C-FB7B-4033-AC6B-D2C2539E6B16}" name="Обозначение старое" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{EC78E633-8563-42D5-8695-2F554D2FBEA9}" name="Наименование старое" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{09BAA521-82B1-47F5-BF02-48A5B2CAD9AF}" name="Обозначение" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{1C5D4D35-42E2-4E48-B984-7125CE7EE059}" name="Наименование" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{399D197B-D00B-4C0C-A383-FE097C4526DF}" name="Количество" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{779B369C-A116-4755-B7F2-868E7AE5D9DB}" name="Материал" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{DB028B6D-2012-4A7F-9073-4FC6D194DF1C}" name="Плотность" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{83AD91A7-A0C0-40E0-8519-9AE631E70B76}" name="Раздел спецификации" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{B046F9E4-F9D5-4718-A3EC-3F78FB527EC2}" name="Организация" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F081264F-9FA3-49C0-9E35-FBFB1C069208}" name="Изменено" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31876364-9740-4186-96B5-52D7E2CBB347}" name="Таблица1" displayName="Таблица1" ref="A1:L53" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16" headerRowCellStyle="Обычный 2">
+  <autoFilter ref="A1:L53" xr:uid="{A43478FD-0FBD-4CC5-A216-991FD30CEC71}"/>
+  <tableColumns count="12">
+    <tableColumn id="7" xr3:uid="{6D6D276A-1C72-4EE1-A701-400BDF89D17B}" name="№" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{6F9B2A5C-FB7B-4033-AC6B-D2C2539E6B16}" name="Обозначение старое" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{EC78E633-8563-42D5-8695-2F554D2FBEA9}" name="Наименование старое" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{09BAA521-82B1-47F5-BF02-48A5B2CAD9AF}" name="Обозначение" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{1C5D4D35-42E2-4E48-B984-7125CE7EE059}" name="Наименование" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{399D197B-D00B-4C0C-A383-FE097C4526DF}" name="Количество" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{779B369C-A116-4755-B7F2-868E7AE5D9DB}" name="Материал" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{DB028B6D-2012-4A7F-9073-4FC6D194DF1C}" name="Плотность" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{5222C73A-C020-4CF0-A07F-75B61679B9B2}" name="S" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{83AD91A7-A0C0-40E0-8519-9AE631E70B76}" name="Раздел спецификации" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{B046F9E4-F9D5-4718-A3EC-3F78FB527EC2}" name="Организация" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{F081264F-9FA3-49C0-9E35-FBFB1C069208}" name="Изменено" dataDxfId="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -969,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -985,20 +1012,20 @@
     <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -1007,25 +1034,28 @@
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1045,22 +1075,25 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1">
         <v>7.8559999999999999</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>22</v>
+      <c r="I2" s="1">
+        <v>10</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1080,22 +1113,25 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1">
         <v>2.77</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="1">
+        <v>11</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1115,22 +1151,25 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1">
         <v>7.8559999999999999</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="1">
+        <v>12</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1150,30 +1189,33 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1">
         <v>7.8559999999999999</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="1">
+        <v>13</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -1185,22 +1227,25 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1">
         <v>7.8559999999999999</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="1">
         <v>14</v>
       </c>
       <c r="J6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1213,9 +1258,10 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1228,9 +1274,10 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1243,9 +1290,10 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1258,9 +1306,10 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1273,9 +1322,10 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1288,9 +1338,10 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1303,9 +1354,10 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1318,9 +1370,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1333,9 +1386,10 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1348,9 +1402,10 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1363,9 +1418,10 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K17" s="3"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1378,9 +1434,10 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K18" s="3"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1393,9 +1450,10 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K19" s="3"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1408,9 +1466,10 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K20" s="3"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1423,9 +1482,10 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1438,9 +1498,10 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K22" s="3"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1453,9 +1514,10 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K23" s="3"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1468,9 +1530,10 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K24" s="3"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1483,9 +1546,10 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K25" s="3"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1498,9 +1562,10 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1512,9 +1577,10 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J27" s="3"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1527,9 +1593,10 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K28" s="3"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1542,9 +1609,10 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K29" s="3"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1557,9 +1625,10 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -1572,9 +1641,10 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="11"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1587,9 +1657,10 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="11"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K32" s="10"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -1602,9 +1673,10 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K33" s="10"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -1617,9 +1689,10 @@
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K34" s="10"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -1632,9 +1705,10 @@
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K35" s="10"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -1647,9 +1721,10 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K36" s="10"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -1662,9 +1737,10 @@
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
-      <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K37" s="10"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -1677,9 +1753,10 @@
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K38" s="10"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -1692,9 +1769,10 @@
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K39" s="10"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -1707,9 +1785,10 @@
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K40" s="10"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -1722,9 +1801,10 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
-      <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K41" s="10"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -1737,9 +1817,10 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
-      <c r="K42" s="11"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K42" s="10"/>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -1752,9 +1833,10 @@
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
-      <c r="K43" s="11"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K43" s="10"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -1767,9 +1849,10 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
-      <c r="K44" s="11"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K44" s="10"/>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -1782,9 +1865,10 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
-      <c r="K45" s="11"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K45" s="10"/>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -1797,9 +1881,10 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
-      <c r="K46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K46" s="10"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -1812,9 +1897,10 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
-      <c r="K47" s="11"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K47" s="10"/>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -1827,9 +1913,10 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
-      <c r="K48" s="11"/>
-    </row>
-    <row r="49" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K48" s="10"/>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -1842,9 +1929,10 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
-      <c r="K49" s="11"/>
-    </row>
-    <row r="50" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K49" s="10"/>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -1857,9 +1945,10 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
-      <c r="K50" s="11"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K50" s="10"/>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -1872,9 +1961,10 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
-      <c r="K51" s="11"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K51" s="10"/>
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -1887,9 +1977,10 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
-      <c r="K52" s="11"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="K52" s="10"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -1902,28 +1993,29 @@
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
-      <c r="K53" s="11"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="K2:K5">
+  <conditionalFormatting sqref="L2:L5">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Нет">
-      <formula>NOT(ISERROR(SEARCH("Нет",K2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Нет",L2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Да">
-      <formula>NOT(ISERROR(SEARCH("Да",K2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Да",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
+  <conditionalFormatting sqref="L6">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Нет">
-      <formula>NOT(ISERROR(SEARCH("Нет",K6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Нет",L6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Да">
-      <formula>NOT(ISERROR(SEARCH("Да",K6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Да",L6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{6BFAD3FB-E2EE-4364-9FC9-D4EC565C3DF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{6BFAD3FB-E2EE-4364-9FC9-D4EC565C3DF1}">
       <formula1>"Детали,Сборочные еденицы,Стандартные изделия,Прочие изделия,Материалы,Комплекты"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{A13CDCE0-4040-4176-B80B-C42B40602216}">

--- a/KChangeExcel.xlsx
+++ b/KChangeExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Каширских Дмитрий\Desktop\Дмитрий\ГОСТ\Прочее\Макросы\KChangeExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152F896D-CBD6-4382-84F4-74EDBE5FE1A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F441DDB4-1543-455F-AA9D-575D0A96D120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51190" yWindow="0" windowWidth="25610" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>г/см3</t>
+          <t>кг/м3</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Обозначение</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Наименование</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Нет</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>АБВГ.123456.004</t>
   </si>
   <si>
-    <t>Сборочные еденицы</t>
-  </si>
-  <si>
     <t>Раздел спецификации</t>
   </si>
   <si>
@@ -148,13 +142,34 @@
     <t>Д16 ГОСТ 4784-2019</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Количество</t>
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>КЛМН.123456.005</t>
+  </si>
+  <si>
+    <t>Дно</t>
+  </si>
+  <si>
+    <t>Корпус</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>Крышка</t>
+  </si>
+  <si>
+    <t>Детали</t>
+  </si>
+  <si>
+    <t>Материалы</t>
+  </si>
+  <si>
+    <t>Сборочные единицы</t>
   </si>
 </sst>
 </file>
@@ -214,7 +229,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +239,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor theme="4"/>
       </patternFill>
     </fill>
@@ -270,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,14 +308,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -308,92 +323,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{6684A645-1D79-4406-8D5E-161581B43CA7}"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -475,6 +419,46 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -699,6 +683,46 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -713,21 +737,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31876364-9740-4186-96B5-52D7E2CBB347}" name="Таблица1" displayName="Таблица1" ref="A1:L53" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16" headerRowCellStyle="Обычный 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31876364-9740-4186-96B5-52D7E2CBB347}" name="Таблица1" displayName="Таблица1" ref="A1:L53" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Обычный 2">
   <autoFilter ref="A1:L53" xr:uid="{A43478FD-0FBD-4CC5-A216-991FD30CEC71}"/>
   <tableColumns count="12">
-    <tableColumn id="7" xr3:uid="{6D6D276A-1C72-4EE1-A701-400BDF89D17B}" name="№" dataDxfId="15"/>
-    <tableColumn id="1" xr3:uid="{6F9B2A5C-FB7B-4033-AC6B-D2C2539E6B16}" name="Обозначение старое" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{EC78E633-8563-42D5-8695-2F554D2FBEA9}" name="Наименование старое" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{09BAA521-82B1-47F5-BF02-48A5B2CAD9AF}" name="Обозначение" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{1C5D4D35-42E2-4E48-B984-7125CE7EE059}" name="Наименование" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{399D197B-D00B-4C0C-A383-FE097C4526DF}" name="Количество" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{6D6D276A-1C72-4EE1-A701-400BDF89D17B}" name="№" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{6F9B2A5C-FB7B-4033-AC6B-D2C2539E6B16}" name="Обозначение старое" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{EC78E633-8563-42D5-8695-2F554D2FBEA9}" name="Наименование старое" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{09BAA521-82B1-47F5-BF02-48A5B2CAD9AF}" name="Обозначение" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{1C5D4D35-42E2-4E48-B984-7125CE7EE059}" name="Наименование" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{399D197B-D00B-4C0C-A383-FE097C4526DF}" name="Количество" dataDxfId="6"/>
     <tableColumn id="11" xr3:uid="{779B369C-A116-4755-B7F2-868E7AE5D9DB}" name="Материал" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{DB028B6D-2012-4A7F-9073-4FC6D194DF1C}" name="Плотность" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{5222C73A-C020-4CF0-A07F-75B61679B9B2}" name="S" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{83AD91A7-A0C0-40E0-8519-9AE631E70B76}" name="Раздел спецификации" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{B046F9E4-F9D5-4718-A3EC-3F78FB527EC2}" name="Организация" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F081264F-9FA3-49C0-9E35-FBFB1C069208}" name="Изменено" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{DB028B6D-2012-4A7F-9073-4FC6D194DF1C}" name="Плотность" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{5222C73A-C020-4CF0-A07F-75B61679B9B2}" name="S" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{83AD91A7-A0C0-40E0-8519-9AE631E70B76}" name="Раздел спецификации" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{B046F9E4-F9D5-4718-A3EC-3F78FB527EC2}" name="Организация" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F081264F-9FA3-49C0-9E35-FBFB1C069208}" name="Изменено" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -999,7 +1023,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1009,23 +1033,24 @@
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.90625" customWidth="1"/>
     <col min="5" max="5" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" customWidth="1"/>
+    <col min="9" max="9" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>24</v>
+      <c r="A1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -1034,219 +1059,215 @@
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1">
-        <v>7.8559999999999999</v>
+        <v>7856</v>
       </c>
       <c r="I2" s="1">
         <v>10</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>16</v>
+      <c r="J2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1">
-        <v>2.77</v>
+        <v>2770</v>
       </c>
       <c r="I3" s="1">
         <v>11</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>16</v>
+      <c r="J3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1">
-        <v>7.8559999999999999</v>
+        <v>7856</v>
       </c>
       <c r="I4" s="1">
         <v>12</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>16</v>
+      <c r="J4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1">
-        <v>7.8559999999999999</v>
+        <v>7856</v>
       </c>
       <c r="I5" s="1">
         <v>13</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>16</v>
+      <c r="J5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1">
-        <v>7.8559999999999999</v>
+        <v>7856</v>
       </c>
       <c r="I6" s="1">
         <v>14</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>16</v>
+      <c r="J6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
@@ -1262,7 +1283,7 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
@@ -1278,7 +1299,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
@@ -1294,7 +1315,7 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
@@ -1310,7 +1331,7 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
@@ -1326,7 +1347,7 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
@@ -1342,7 +1363,7 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
@@ -1358,7 +1379,7 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
@@ -1374,7 +1395,7 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
@@ -1390,7 +1411,7 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
@@ -1406,7 +1427,7 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
@@ -1422,7 +1443,7 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
@@ -1438,7 +1459,7 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
@@ -1454,7 +1475,7 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
@@ -1470,7 +1491,7 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
@@ -1486,7 +1507,7 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="1"/>
@@ -1502,7 +1523,7 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="1"/>
@@ -1518,7 +1539,7 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="1"/>
@@ -1534,7 +1555,7 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
@@ -1550,7 +1571,7 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="1"/>
@@ -1566,7 +1587,7 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
@@ -1578,10 +1599,10 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="10"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="1"/>
@@ -1597,7 +1618,7 @@
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="1"/>
@@ -1613,420 +1634,421 @@
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="11"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="11"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="11"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="11"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="11"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="11"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="11"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="11"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="11"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="11"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="11"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="11"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="11"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="11"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="11"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="11"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="11"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="9"/>
     </row>
     <row r="50" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="11"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="9"/>
     </row>
     <row r="51" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="11"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="9"/>
     </row>
     <row r="52" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="11"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="9"/>
     </row>
     <row r="53" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="11"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="L2:L5">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Нет">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Нет">
       <formula>NOT(ISERROR(SEARCH("Нет",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Да">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Да">
       <formula>NOT(ISERROR(SEARCH("Да",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Нет">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Нет">
       <formula>NOT(ISERROR(SEARCH("Нет",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Да">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Да">
       <formula>NOT(ISERROR(SEARCH("Да",L6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{6BFAD3FB-E2EE-4364-9FC9-D4EC565C3DF1}">
-      <formula1>"Детали,Сборочные еденицы,Стандартные изделия,Прочие изделия,Материалы,Комплекты"</formula1>
-    </dataValidation>
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{A13CDCE0-4040-4176-B80B-C42B40602216}">
       <formula1>1</formula1>
       <formula2>1</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{81DB4A8C-0DB2-44A7-BF06-E7654AC5D719}">
+      <formula1>"Детали,Сборочные единицы,Стандартные изделия,Прочие изделия,Материалы,Комплекты"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/KChangeExcel.xlsx
+++ b/KChangeExcel.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Каширских Дмитрий\Desktop\Дмитрий\ГОСТ\Прочее\Макросы\KChangeExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F441DDB4-1543-455F-AA9D-575D0A96D120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58B50B3-403B-49C1-A7E2-4AF6DF75AF5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51190" yWindow="0" windowWidth="25610" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -36,7 +25,21 @@
     <author>Каширских Дмитрий</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{254297D4-7FC7-43D9-982D-F0B03068DBCF}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>кг/м3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{BD966C38-5689-4CA0-8312-54485A3E8F40}">
       <text>
         <r>
           <rPr>
@@ -44,10 +47,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
-          <t>кг/м3</t>
+          <t>Работает только при закрытом файле Excel!</t>
         </r>
       </text>
     </comment>
@@ -56,7 +58,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Обозначение старое</t>
+  </si>
+  <si>
+    <t>Наименование старое</t>
+  </si>
   <si>
     <t>Обозначение</t>
   </si>
@@ -64,7 +75,28 @@
     <t>Наименование</t>
   </si>
   <si>
-    <t>Нет</t>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Материал</t>
+  </si>
+  <si>
+    <t>Плотность</t>
+  </si>
+  <si>
+    <t>Раздел спецификации</t>
+  </si>
+  <si>
+    <t>Раздел спецификации_1</t>
+  </si>
+  <si>
+    <t>Организация_1</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Изменено</t>
   </si>
   <si>
     <t>АБВГ.123456.001</t>
@@ -73,110 +105,101 @@
     <t>Плита</t>
   </si>
   <si>
+    <t>Прямоугольник 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сталь 40Х ГОСТ 4543-2016 </t>
+  </si>
+  <si>
+    <t>Сборочные единицы</t>
+  </si>
+  <si>
+    <t>Электрические изделия</t>
+  </si>
+  <si>
     <t>АБВГ.123456.002</t>
   </si>
   <si>
+    <t>КЛМН.123456.002</t>
+  </si>
+  <si>
+    <t>Корпус</t>
+  </si>
+  <si>
+    <t>Д16 ГОСТ 4784-2019</t>
+  </si>
+  <si>
+    <t>Детали</t>
+  </si>
+  <si>
+    <t>Внешняя кооперация</t>
+  </si>
+  <si>
     <t>АБВГ.123456.003</t>
   </si>
   <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>КЛМН.123456.001</t>
-  </si>
-  <si>
-    <t>КЛМН.123456.002</t>
-  </si>
-  <si>
     <t>КЛМН.123456.003</t>
   </si>
   <si>
-    <t>Прямоугольный параллелепипед</t>
+    <t>Тест</t>
   </si>
   <si>
     <t>Стандартные изделия</t>
   </si>
   <si>
+    <t>Холодильное оборудование</t>
+  </si>
+  <si>
+    <t>АБВГ.123456.011</t>
+  </si>
+  <si>
+    <t>Новая СБ</t>
+  </si>
+  <si>
     <t>Прочие изделия</t>
   </si>
   <si>
-    <t>Организация</t>
-  </si>
-  <si>
-    <t>Рога и копыта</t>
-  </si>
-  <si>
-    <t>Изменено</t>
+    <t>Сварочный участок</t>
+  </si>
+  <si>
+    <t>Корыто</t>
+  </si>
+  <si>
+    <t>КЛМН.123456.005</t>
+  </si>
+  <si>
+    <t>Дно</t>
+  </si>
+  <si>
+    <t>Материалы</t>
+  </si>
+  <si>
+    <t>Сборочный участок</t>
+  </si>
+  <si>
+    <t>ААББ.12345</t>
+  </si>
+  <si>
+    <t>ББВВ.12345</t>
+  </si>
+  <si>
+    <t>Проверка</t>
+  </si>
+  <si>
+    <t>Комплекты</t>
+  </si>
+  <si>
+    <t>Сантехнические изделия</t>
   </si>
   <si>
     <t>Да</t>
-  </si>
-  <si>
-    <t>КЛМН.123456.004</t>
-  </si>
-  <si>
-    <t>АБВГ.123456.004</t>
-  </si>
-  <si>
-    <t>Раздел спецификации</t>
-  </si>
-  <si>
-    <t>Обозначение старое</t>
-  </si>
-  <si>
-    <t>Наименование старое</t>
-  </si>
-  <si>
-    <t>Корыто</t>
-  </si>
-  <si>
-    <t>Плотность</t>
-  </si>
-  <si>
-    <t>Материал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сталь 40Х ГОСТ 4543-2016 </t>
-  </si>
-  <si>
-    <t>Д16 ГОСТ 4784-2019</t>
-  </si>
-  <si>
-    <t>Количество</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>КЛМН.123456.005</t>
-  </si>
-  <si>
-    <t>Дно</t>
-  </si>
-  <si>
-    <t>Корпус</t>
-  </si>
-  <si>
-    <t>Тест</t>
-  </si>
-  <si>
-    <t>Крышка</t>
-  </si>
-  <si>
-    <t>Детали</t>
-  </si>
-  <si>
-    <t>Материалы</t>
-  </si>
-  <si>
-    <t>Сборочные единицы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,18 +238,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -291,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,25 +315,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -326,38 +330,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{6684A645-1D79-4406-8D5E-161581B43CA7}"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center"/>
+      <border>
         <left/>
         <right style="thin">
           <color theme="4"/>
@@ -372,44 +369,68 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </font>
+      <alignment horizontal="general" vertical="center"/>
+      <border>
         <left/>
         <right/>
         <top style="thin">
@@ -422,104 +443,68 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="center"/>
+      <border>
         <left/>
         <right/>
         <top style="thin">
@@ -532,24 +517,20 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center"/>
+      <border>
         <left/>
         <right/>
         <top style="thin">
@@ -562,24 +543,20 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="center"/>
+      <border>
         <left/>
         <right/>
         <top style="thin">
@@ -592,24 +569,20 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center"/>
+      <border>
         <left/>
         <right/>
         <top style="thin">
@@ -622,24 +595,20 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center"/>
+      <border>
         <left/>
         <right/>
         <top style="thin">
@@ -666,14 +635,12 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="0"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -681,7 +648,7 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </dxf>
     <dxf>
       <font>
@@ -737,21 +704,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31876364-9740-4186-96B5-52D7E2CBB347}" name="Таблица1" displayName="Таблица1" ref="A1:L53" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Обычный 2">
-  <autoFilter ref="A1:L53" xr:uid="{A43478FD-0FBD-4CC5-A216-991FD30CEC71}"/>
-  <tableColumns count="12">
-    <tableColumn id="7" xr3:uid="{6D6D276A-1C72-4EE1-A701-400BDF89D17B}" name="№" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{6F9B2A5C-FB7B-4033-AC6B-D2C2539E6B16}" name="Обозначение старое" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{EC78E633-8563-42D5-8695-2F554D2FBEA9}" name="Наименование старое" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{09BAA521-82B1-47F5-BF02-48A5B2CAD9AF}" name="Обозначение" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{1C5D4D35-42E2-4E48-B984-7125CE7EE059}" name="Наименование" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{399D197B-D00B-4C0C-A383-FE097C4526DF}" name="Количество" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{779B369C-A116-4755-B7F2-868E7AE5D9DB}" name="Материал" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{DB028B6D-2012-4A7F-9073-4FC6D194DF1C}" name="Плотность" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{5222C73A-C020-4CF0-A07F-75B61679B9B2}" name="S" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{83AD91A7-A0C0-40E0-8519-9AE631E70B76}" name="Раздел спецификации" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{B046F9E4-F9D5-4718-A3EC-3F78FB527EC2}" name="Организация" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F081264F-9FA3-49C0-9E35-FBFB1C069208}" name="Изменено" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:M53" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13" headerRowCellStyle="Обычный 2">
+  <autoFilter ref="A1:M53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="№" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Обозначение старое" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Наименование старое" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Обозначение" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Наименование" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Количество" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Материал" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Плотность" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Раздел спецификации" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Раздел спецификации_1" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Организация_1" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="S" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Изменено" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1020,10 +988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,1019 +1005,1107 @@
     <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.54296875" customWidth="1"/>
     <col min="8" max="8" width="18.36328125" customWidth="1"/>
-    <col min="9" max="9" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1">
         <v>7856</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="6">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="M2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1">
         <v>2770</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="6">
         <v>11</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="M3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1">
         <v>7856</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="6">
         <v>12</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="M4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1">
-        <v>7856</v>
-      </c>
-      <c r="I5" s="1">
-        <v>13</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1">
         <v>7856</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="6">
         <v>14</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="M6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7856</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="6">
+        <v>10</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+      <c r="E28" s="2"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="6">
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="9"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="9"/>
-    </row>
-    <row r="41" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="6">
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="6">
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="L2:L5">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Нет">
-      <formula>NOT(ISERROR(SEARCH("Нет",L2)))</formula>
+  <conditionalFormatting sqref="M2:M7">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Нет">
+      <formula>NOT(ISERROR(SEARCH("Нет",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Да">
-      <formula>NOT(ISERROR(SEARCH("Да",L2)))</formula>
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Да">
+      <formula>NOT(ISERROR(SEARCH("Да",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Нет">
-      <formula>NOT(ISERROR(SEARCH("Нет",L6)))</formula>
+  <conditionalFormatting sqref="M8:M53">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Нет">
+      <formula>NOT(ISERROR(SEARCH("Нет",M8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Да">
-      <formula>NOT(ISERROR(SEARCH("Да",L6)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Да">
+      <formula>NOT(ISERROR(SEARCH("Да",M8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{A13CDCE0-4040-4176-B80B-C42B40602216}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K53" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"Электрические изделия,Внешняя кооперация,Холодильное оборудование,Сварочный участок,Сборочный участок,Сантехнические изделия,Электротехнический участок,Лазер,Лазер/гибка,Крепеж,Ленточная пила,Токарная обработка,Фрезерная обработка"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I53" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"Детали,Сборочные единицы,Стандартные изделия,Прочие изделия,Материалы,Комплекты"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J53" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>"Детали,Сборочные единицы,Стандартные изделия,Прочие изделия"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>1</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{81DB4A8C-0DB2-44A7-BF06-E7654AC5D719}">
-      <formula1>"Детали,Сборочные единицы,Стандартные изделия,Прочие изделия,Материалы,Комплекты"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/KChangeExcel.xlsx
+++ b/KChangeExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Каширских Дмитрий\Desktop\Дмитрий\ГОСТ\Прочее\Макросы\KChangeExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58B50B3-403B-49C1-A7E2-4AF6DF75AF5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27340902-5076-4CC3-B70B-CB550F2B0448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51190" yWindow="0" windowWidth="25610" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -990,9 +990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/KChangeExcel.xlsx
+++ b/KChangeExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Каширских Дмитрий\Desktop\Дмитрий\ГОСТ\Прочее\Макросы\KChangeExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27340902-5076-4CC3-B70B-CB550F2B0448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C692F0D5-4005-4EB4-9B64-5F6BF3DF9CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51190" yWindow="0" windowWidth="25610" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,7 +992,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/KChangeExcel.xlsx
+++ b/KChangeExcel.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,15 +44,6 @@
       <family val="1"/>
       <color theme="1"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -143,13 +134,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -158,30 +149,6 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <charset val="204"/>
-        <family val="1"/>
-        <b val="1"/>
-        <i val="1"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="14"/>
-        <vertAlign val="baseline"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom"/>
-    </dxf>
     <dxf>
       <font>
         <name val="Times New Roman"/>
@@ -471,6 +438,30 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Times New Roman"/>
+        <charset val="204"/>
+        <family val="1"/>
+        <b val="1"/>
+        <i val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="14"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -603,22 +594,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:M53" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="14" headerRowCellStyle="Обычный 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:M53" headerRowCount="1" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13" headerRowCellStyle="Обычный 2">
   <autoFilter ref="A1:M53"/>
   <tableColumns count="13">
-    <tableColumn id="7" name="№" dataDxfId="13"/>
-    <tableColumn id="1" name="Обозначение старое" dataDxfId="12"/>
-    <tableColumn id="2" name="Наименование старое" dataDxfId="11"/>
-    <tableColumn id="3" name="Обозначение" dataDxfId="10"/>
-    <tableColumn id="4" name="Наименование" dataDxfId="9"/>
-    <tableColumn id="8" name="Количество" dataDxfId="8"/>
-    <tableColumn id="11" name="Материал" dataDxfId="7"/>
-    <tableColumn id="9" name="Плотность" dataDxfId="6"/>
-    <tableColumn id="5" name="Раздел спецификации" dataDxfId="5"/>
-    <tableColumn id="13" name="Раздел спецификации_1" dataDxfId="4"/>
-    <tableColumn id="10" name="Организация_1" dataDxfId="3"/>
-    <tableColumn id="14" name="S" dataDxfId="2"/>
-    <tableColumn id="6" name="Изменено" dataDxfId="1"/>
+    <tableColumn id="7" name="№" dataDxfId="12"/>
+    <tableColumn id="1" name="Обозначение старое" dataDxfId="11"/>
+    <tableColumn id="2" name="Наименование старое" dataDxfId="10"/>
+    <tableColumn id="3" name="Обозначение" dataDxfId="9"/>
+    <tableColumn id="4" name="Наименование" dataDxfId="8"/>
+    <tableColumn id="8" name="Количество" dataDxfId="7"/>
+    <tableColumn id="11" name="Материал" dataDxfId="6"/>
+    <tableColumn id="9" name="Плотность" dataDxfId="5"/>
+    <tableColumn id="5" name="Раздел спецификации" dataDxfId="4"/>
+    <tableColumn id="13" name="Раздел спецификации_1" dataDxfId="3"/>
+    <tableColumn id="10" name="Организация_1" dataDxfId="2"/>
+    <tableColumn id="14" name="S" dataDxfId="1"/>
+    <tableColumn id="6" name="Изменено" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -895,7 +886,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -1033,7 +1024,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1079,7 @@
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1150,12 @@
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>КЛМН.123456.011</t>
+          <t>delete</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Четвёртая дет. из списка</t>
+          <t>delete</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
@@ -1178,7 +1169,7 @@
       <c r="L5" s="5" t="n"/>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>Да</t>
+          <t>Нет</t>
         </is>
       </c>
     </row>

--- a/KChangeExcel.xlsx
+++ b/KChangeExcel.xlsx
@@ -8,14 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Каширских Дмитрий\Desktop\Дмитрий\ГОСТ\Прочее\Макросы\KChangeExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DFAF5C-7019-4344-BE38-5CB0DCA46ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0507A5AA-F3D4-4A48-AA41-645381E02A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51190" yWindow="0" windowWidth="25610" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -58,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>№</t>
   </si>
@@ -193,6 +202,12 @@
   </si>
   <si>
     <t>Сантехнические изделия</t>
+  </si>
+  <si>
+    <t>АБВГ.123456.100-01</t>
+  </si>
+  <si>
+    <t>АБВГ.123456.100-011 ГЧ</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1001,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,7 +1009,7 @@
     <col min="1" max="1" width="7.08984375" customWidth="1"/>
     <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.54296875" customWidth="1"/>
@@ -1283,9 +1298,13 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2078,7 +2097,7 @@
       <formula>NOT(ISERROR(SEARCH("Да",M8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K4 K6:K53" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Электрические изделия,Внешняя кооперация,Холодильное оборудование,Сварочный участок,Сборочный участок,Сантехнические изделия,Электротехнический участок,Лазер,Лазер/гибка,Крепеж,Ленточная пила,Токарная обработка,Фрезерная обработка"</formula1>
     </dataValidation>

--- a/KChangeExcel.xlsx
+++ b/KChangeExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Каширских Дмитрий\Desktop\Дмитрий\ГОСТ\Прочее\Макросы\KChangeExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0507A5AA-F3D4-4A48-AA41-645381E02A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061BC397-8D7E-4FE6-A90D-5EA5B3E3DA45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51190" yWindow="0" windowWidth="25610" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,10 +204,10 @@
     <t>Сантехнические изделия</t>
   </si>
   <si>
+    <t>АБВГ.123456.100-01 СБ</t>
+  </si>
+  <si>
     <t>АБВГ.123456.100-01</t>
-  </si>
-  <si>
-    <t>АБВГ.123456.100-011 ГЧ</t>
   </si>
 </sst>
 </file>
@@ -347,6 +347,46 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -658,46 +698,6 @@
       </fill>
       <alignment horizontal="center" vertical="bottom"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -712,22 +712,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:M53" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13" headerRowCellStyle="Обычный 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:M53" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17" headerRowCellStyle="Обычный 2">
   <autoFilter ref="A1:M53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="№" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Обозначение старое" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Наименование старое" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Обозначение" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Наименование" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Количество" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Материал" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Плотность" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Раздел спецификации" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Раздел спецификации_1" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Организация_1" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="S" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Изменено" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="№" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Обозначение старое" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Наименование старое" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Обозначение" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Наименование" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Количество" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Материал" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Плотность" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Раздел спецификации" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Раздел спецификации_1" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Организация_1" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="S" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Изменено" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1001,7 +1001,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1299,11 +1299,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
@@ -2082,18 +2082,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M7">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Нет">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Нет">
       <formula>NOT(ISERROR(SEARCH("Нет",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Да">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Да">
       <formula>NOT(ISERROR(SEARCH("Да",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M53">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Нет">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Нет">
       <formula>NOT(ISERROR(SEARCH("Нет",M8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Да">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Да">
       <formula>NOT(ISERROR(SEARCH("Да",M8)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/KChangeExcel.xlsx
+++ b/KChangeExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Каширских Дмитрий\Desktop\Дмитрий\ГОСТ\Прочее\Макросы\KChangeExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061BC397-8D7E-4FE6-A90D-5EA5B3E3DA45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298556FC-8B8F-4395-AB52-7629FCB0487D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51190" yWindow="0" windowWidth="25610" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -204,10 +204,13 @@
     <t>Сантехнические изделия</t>
   </si>
   <si>
-    <t>АБВГ.123456.100-01 СБ</t>
-  </si>
-  <si>
-    <t>АБВГ.123456.100-01</t>
+    <t>Наим</t>
+  </si>
+  <si>
+    <t>АБВГ.123456.100</t>
+  </si>
+  <si>
+    <t>АБВГ.123456.100 ГЧ</t>
   </si>
 </sst>
 </file>
@@ -1303,9 +1306,11 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>

--- a/KChangeExcel.xlsx
+++ b/KChangeExcel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Каширских Дмитрий\Desktop\Дмитрий\ГОСТ\Прочее\Макросы\KChangeExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298556FC-8B8F-4395-AB52-7629FCB0487D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CE64F4-2439-4BF4-8270-80BE908BAAFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51190" yWindow="0" windowWidth="25610" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51190" yWindow="0" windowWidth="25610" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.0" sheetId="1" r:id="rId1"/>
+    <sheet name="Инструкция" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>№</t>
   </si>
@@ -111,9 +112,6 @@
     <t>АБВГ.123456.001</t>
   </si>
   <si>
-    <t>КЛМН.123456.001</t>
-  </si>
-  <si>
     <t>Первая дет. из списка</t>
   </si>
   <si>
@@ -171,9 +169,6 @@
     <t>delete</t>
   </si>
   <si>
-    <t>Деталь</t>
-  </si>
-  <si>
     <t>КЛМН.123456.005</t>
   </si>
   <si>
@@ -192,9 +187,6 @@
     <t>ААББ.12345</t>
   </si>
   <si>
-    <t>ББВВ.12345</t>
-  </si>
-  <si>
     <t>Пятая дет. из списка</t>
   </si>
   <si>
@@ -204,20 +196,192 @@
     <t>Сантехнические изделия</t>
   </si>
   <si>
+    <t>АБВГ.123456.100-01 СБ</t>
+  </si>
+  <si>
     <t>Наим</t>
   </si>
   <si>
-    <t>АБВГ.123456.100</t>
-  </si>
-  <si>
     <t>АБВГ.123456.100 ГЧ</t>
+  </si>
+  <si>
+    <t>Деталь без обозначения</t>
+  </si>
+  <si>
+    <t>КЛМН.123456.001 СБ</t>
+  </si>
+  <si>
+    <t>ББВВ.12345-01</t>
+  </si>
+  <si>
+    <t>2. Колонки между Тёмно-синими колонками, можно менять, удалять и добавлять в любом порядке.</t>
+  </si>
+  <si>
+    <t>3. Обработка файлов идёт по порядку вставки их в СБ, копии файлов и массивы игнорируються.</t>
+  </si>
+  <si>
+    <t>5. При записанном значении в колонке "Обозначение" обработка идёт только по "Обозначению".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Тёмно-синие колонки (первые три "№", "Обозначение старое", "Наименование старое" и последняя "Изменено") менять местами и удалять </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>нельзя!</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Для удобства можно сортировать колонки таблицы.</t>
+  </si>
+  <si>
+    <t>6. При пропуске значения в колонке "Обозначение" обработка идёт по значениям в колонке "Наименование".</t>
+  </si>
+  <si>
+    <r>
+      <t>10. При изменении номера исп. в дет. имеющее исп., "нулевой" номер исп. будет начинаться с значения введёного в колонку "Обозначение". 
+Пример: дет. имеет 3 исп. (АБВГ.123456.001, АБВГ.123456.001-01, АБВГ.123456.001-02), если изменять номера исп. АБВГ.123456.001-01 =&gt; АБВГ.123456.001-0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, то дет. будет иметь исп. АБВГ.123456.001-0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, АБВГ.123456.001-0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, АБВГ.123456.001-0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>9. При записи в обозначение исп. (-01,-02….) и кода документа (СБ, ГЧ, МЧ…), они распределяються в соответствующие колонки в КОМПАСе.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11. Для отображения прогресса в колонке "Изменено" необходимо </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>закрыть Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и запустить обработку.</t>
+    </r>
+  </si>
+  <si>
+    <t>Правила использования</t>
+  </si>
+  <si>
+    <t>8. Если в значение колонки вписать "delete" (без ковычек), значение удаляется.</t>
+  </si>
+  <si>
+    <t>7. Если в значение колонки ничего не вписанно, оно не меняеться.</t>
+  </si>
+  <si>
+    <t>12. При отсутствии св-в в док. св-ва берутся из наименования файла введённого в "property_library".
+Путь расположения библиотеки определяется сам, файл расположить в папке "Sys" установленного КОМПАСа ("C:\Program Files\ASCON\KOMPAS-3D vXX\Sys").</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +415,44 @@
       <i/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -318,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,6 +545,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1002,9 +1213,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1074,34 +1285,34 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1">
         <v>7856</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="L2" s="5">
         <v>10</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1109,38 +1320,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1">
         <v>2770</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="L3" s="5">
         <v>11</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1148,38 +1359,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1">
         <v>7856</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="L4" s="5">
         <v>12</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1187,36 +1398,36 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1225,37 +1436,37 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1">
         <v>7856</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="L6" s="5">
         <v>14</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1263,38 +1474,36 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1">
         <v>7856</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="5">
-        <v>10</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="L7" s="5"/>
       <c r="M7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1302,14 +1511,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2124,4 +2333,181 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32B1418-F369-4657-8BF9-42A3D9441FAB}">
+  <dimension ref="B2:B45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="80.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KChangeExcel.xlsx
+++ b/KChangeExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Каширских Дмитрий\Desktop\Дмитрий\ГОСТ\Прочее\Макросы\KChangeExcel\Архив\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701C45CD-EBA6-4F53-A967-7E0938DD5867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B19AC0-C824-4EB6-87A9-AB0388CD077C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49400" yWindow="0" windowWidth="25610" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42960" yWindow="0" windowWidth="25610" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.0" sheetId="1" r:id="rId1"/>
@@ -931,9 +931,6 @@
     </r>
   </si>
   <si>
-    <t>Правила использования для v1.0</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">В </t>
     </r>
@@ -1930,6 +1927,9 @@
       </rPr>
       <t xml:space="preserve"> "Настройки по умолчанию" (заданные в программе).</t>
     </r>
+  </si>
+  <si>
+    <t>Правила использования для v1.1</t>
   </si>
 </sst>
 </file>
@@ -4585,7 +4585,7 @@
   <dimension ref="A2:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4595,7 +4595,7 @@
   <sheetData>
     <row r="2" spans="1:2" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.35">
@@ -4603,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.35">
@@ -4619,7 +4619,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
@@ -4635,7 +4635,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
@@ -4651,7 +4651,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31" x14ac:dyDescent="0.35">
@@ -4659,7 +4659,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="31" x14ac:dyDescent="0.35">
@@ -4667,7 +4667,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31" x14ac:dyDescent="0.35">
@@ -4675,7 +4675,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="62" x14ac:dyDescent="0.35">
@@ -4723,7 +4723,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
